--- a/newProject/ref/参考数据/市场规模分析.xlsx
+++ b/newProject/ref/参考数据/市场规模分析.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD72E568-AC67-4A6C-8891-FD2E110E28B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E0F05-E7AC-438D-9073-B0FB1A1BD9E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3673,18 +3673,18 @@
   <dimension ref="A3:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="5.25" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
